--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>401601.5740081405</v>
+        <v>376293.3082743285</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914736</v>
+        <v>2629876.587221765</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136533</v>
+        <v>19997574.02179435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4921780.869873128</v>
+        <v>4902171.467891437</v>
       </c>
     </row>
     <row r="11">
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.87161743162454</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.87161743162454</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.13217237922859</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C6" t="n">
-        <v>38.87161743162455</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>27.291937497222</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1780,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,61 +1853,61 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>38.87161743162455</v>
+      </c>
+      <c r="V17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="H17" t="n">
+      <c r="W17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="I17" t="n">
+      <c r="X17" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
+        <v>38.87161743162455</v>
+      </c>
+      <c r="S18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="S18" t="n">
-        <v>38.87161743162455</v>
       </c>
       <c r="T18" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,55 +2017,55 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="I19" t="n">
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.790450447682262</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="X19" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.13484214871499</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>104.2801141926743</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,52 +2251,52 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2330,52 +2330,52 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>19.7279353865638</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.57487806461182</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2488,55 +2488,55 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,23 +2552,23 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>141.3960895962228</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2646,7 +2646,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>45.76937707216953</v>
       </c>
     </row>
     <row r="28">
@@ -2731,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,31 +2834,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>84.05721994201966</v>
+        <v>14.12036407145865</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2931,10 +2931,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>232.8330857361503</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>121.7911906719549</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>69.88468457242926</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3503,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>18.95603491516094</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>198.2885478252619</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>36.95496583014156</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3995,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>44.13217237922859</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H45" t="n">
-        <v>38.12502610536669</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.790450447682255</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T2" t="n">
-        <v>131.9507376187037</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U2" t="n">
-        <v>131.9507376187037</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V2" t="n">
-        <v>131.9507376187037</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W2" t="n">
-        <v>87.37278572049297</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X2" t="n">
-        <v>42.79483382228227</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>137.2644294849704</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>92.68647758675968</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>48.10852568854899</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N3" t="n">
-        <v>90.91227510121089</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O3" t="n">
-        <v>134.6031257566472</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="G4" t="n">
-        <v>137.2644294849704</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="H4" t="n">
-        <v>92.68647758675968</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I4" t="n">
-        <v>48.10852568854899</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M5" t="n">
-        <v>134.6031257566472</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U5" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V5" t="n">
-        <v>131.9507376187037</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W5" t="n">
-        <v>131.9507376187037</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X5" t="n">
-        <v>87.37278572049297</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y5" t="n">
-        <v>42.79483382228227</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.9507376187037</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C6" t="n">
-        <v>92.68647758675968</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D6" t="n">
-        <v>48.10852568854899</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.9507376187037</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S7" t="n">
-        <v>46.15803044872652</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T7" t="n">
-        <v>46.15803044872652</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C8" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D8" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E8" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F8" t="n">
-        <v>48.10852568854899</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G8" t="n">
-        <v>48.10852568854899</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H8" t="n">
-        <v>48.10852568854899</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>87.37278572049297</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V8" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W8" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X8" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.37278572049297</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C9" t="n">
-        <v>42.79483382228227</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>13.245045875396</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S10" t="n">
-        <v>93.48491238239833</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T10" t="n">
-        <v>48.90696048418764</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U10" t="n">
-        <v>4.329008585976936</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F11" t="n">
-        <v>137.2644294849704</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G11" t="n">
-        <v>92.68647758675968</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M12" t="n">
-        <v>47.22142444577459</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T12" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R13" t="n">
-        <v>46.15803044872652</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S13" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.9507376187037</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C14" t="n">
-        <v>131.9507376187037</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D14" t="n">
-        <v>92.68647758675968</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E14" t="n">
-        <v>92.68647758675968</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F14" t="n">
-        <v>92.68647758675968</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G14" t="n">
-        <v>92.68647758675968</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H14" t="n">
-        <v>48.10852568854899</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W14" t="n">
-        <v>131.9507376187037</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X14" t="n">
-        <v>131.9507376187037</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.9507376187037</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>137.2644294849704</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S15" t="n">
-        <v>92.68647758675968</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T15" t="n">
-        <v>48.10852568854899</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O17" t="n">
         <v>176.5286895169144</v>
@@ -5546,19 +5546,19 @@
         <v>176.5286895169144</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I18" t="n">
         <v>3.530573790338288</v>
@@ -5595,19 +5595,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N18" t="n">
-        <v>45.45613755060546</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
         <v>132.8378388614781</v>
@@ -5616,7 +5616,7 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S18" t="n">
         <v>92.68647758675968</v>
@@ -5625,19 +5625,19 @@
         <v>48.10852568854899</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.48491238239833</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>93.48491238239833</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>93.48491238239833</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>93.48491238239833</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>93.48491238239833</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>93.48491238239833</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
         <v>3.530573790338288</v>
@@ -5698,7 +5698,7 @@
         <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
         <v>93.48491238239833</v>
@@ -5710,13 +5710,13 @@
         <v>93.48491238239833</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.48491238239833</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>901.2946886937524</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="C21" t="n">
-        <v>726.8416594126254</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="D21" t="n">
-        <v>577.9072497513741</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="E21" t="n">
-        <v>418.6697947459187</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="F21" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5862,19 +5862,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5944,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>554.1102621044483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>554.1102621044483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>405.1758524431971</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>245.9383974377416</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>99.40383946462654</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>99.40383946462654</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>99.40383946462654</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.1102621044483</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6184,13 +6184,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
         <v>506.1786963984129</v>
@@ -6212,7 +6212,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>613.4725238202047</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C27" t="n">
-        <v>613.4725238202047</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D27" t="n">
-        <v>464.5381141589534</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>305.3006591534979</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6309,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
         <v>19.28114311021272</v>
@@ -6406,28 +6406,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>591.4512093066566</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>591.4512093066566</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104.1874258799295</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>555.4877027295624</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>312.0389260854624</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X30" t="n">
-        <v>104.1874258799295</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y30" t="n">
-        <v>104.1874258799295</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="31">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>485.4562706347935</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C33" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,10 +6789,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6813,16 +6813,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>485.4562706347935</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y33" t="n">
-        <v>485.4562706347935</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.58726043968704</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C35" t="n">
-        <v>30.58726043968704</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>274.0360370837871</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>30.58726043968704</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W35" t="n">
-        <v>30.58726043968704</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X35" t="n">
-        <v>30.58726043968704</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.58726043968704</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>352.9294114938717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>203.9950018326204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>203.9950018326204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>203.9950018326204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>203.9950018326204</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>90.62586624019973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U38" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V38" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W38" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X38" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U38" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V38" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="Y38" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,19 +7284,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9096454953221</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>709.7575372635794</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>709.7575372635794</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>501.9060370580465</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7360,7 +7360,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
         <v>829.5248650203655</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>325.7766548071333</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C41" t="n">
-        <v>82.32787816303323</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D41" t="n">
-        <v>82.32787816303323</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>501.1544461991459</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>707.0089684063852</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>856.2039185490332</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="U41" t="n">
-        <v>812.6742080953335</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="V41" t="n">
-        <v>569.2254314512334</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="W41" t="n">
-        <v>325.7766548071333</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="X41" t="n">
-        <v>325.7766548071333</v>
+        <v>496.626357174339</v>
       </c>
       <c r="Y41" t="n">
-        <v>325.7766548071333</v>
+        <v>257.7718183255803</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>56.24552779009599</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>304.2053859195205</v>
+        <v>174.1654147507498</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>408.2667482764182</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>642.3680818020865</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>933.9571464551993</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>705.7335281915883</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>470.5814199598456</v>
+        <v>710.7118656093414</v>
       </c>
       <c r="W42" t="n">
-        <v>227.1326433157456</v>
+        <v>471.8573267605827</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>264.0058265550499</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>56.24552779009599</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>838.6458083585264</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>877.8338465507486</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>921.5246972061849</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>945.8639738410842</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60.17851493563234</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C44" t="n">
-        <v>15.60056303742164</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D44" t="n">
-        <v>15.60056303742164</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E44" t="n">
-        <v>15.60056303742164</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F44" t="n">
-        <v>15.60056303742164</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G44" t="n">
-        <v>15.60056303742164</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H44" t="n">
-        <v>15.60056303742164</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I44" t="n">
-        <v>15.60056303742164</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>3.530573790338288</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M44" t="n">
-        <v>47.22142444577459</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N44" t="n">
-        <v>89.14698820604177</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O44" t="n">
-        <v>132.8378388614781</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.4370741486873</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>149.3344187320537</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>149.3344187320537</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T44" t="n">
-        <v>149.3344187320537</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U44" t="n">
-        <v>104.756466833843</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V44" t="n">
-        <v>104.756466833843</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W44" t="n">
-        <v>104.756466833843</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X44" t="n">
-        <v>60.17851493563234</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y44" t="n">
-        <v>60.17851493563234</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>87.37278572049297</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C45" t="n">
-        <v>42.79483382228227</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D45" t="n">
-        <v>42.79483382228227</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E45" t="n">
-        <v>42.79483382228227</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F45" t="n">
-        <v>42.79483382228227</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G45" t="n">
-        <v>42.79483382228227</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H45" t="n">
-        <v>4.284706443124001</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I45" t="n">
-        <v>4.284706443124001</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L45" t="n">
-        <v>90.91227510121089</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M45" t="n">
-        <v>134.6031257566472</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N45" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O45" t="n">
-        <v>176.5286895169144</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S45" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T45" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U45" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V45" t="n">
-        <v>131.9507376187037</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W45" t="n">
-        <v>87.37278572049297</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X45" t="n">
-        <v>87.37278572049297</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y45" t="n">
-        <v>87.37278572049297</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.9507376187037</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C46" t="n">
-        <v>131.9507376187037</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D46" t="n">
-        <v>131.9507376187037</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E46" t="n">
-        <v>87.37278572049297</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F46" t="n">
-        <v>42.79483382228227</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G46" t="n">
-        <v>41.99639902664363</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>41.99639902664363</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>69.3105240343566</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>108.4985622265788</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>152.1894128820151</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>176.5286895169144</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W46" t="n">
-        <v>131.9507376187037</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X46" t="n">
-        <v>131.9507376187037</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y46" t="n">
-        <v>131.9507376187037</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>176.3234617176304</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8383,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8620,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8857,7 +8857,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9015,13 +9015,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9094,7 +9094,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
         <v>279.8985873492159</v>
@@ -9173,10 +9173,10 @@
         <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>184.1139464652501</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10437,13 +10437,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2069195535496</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10920,7 +10920,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>431.5041213350942</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>299.7328472056018</v>
+        <v>295.3706780363673</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>367.8077055436044</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,19 +11300,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M44" t="n">
-        <v>274.4784056065013</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N44" t="n">
-        <v>271.7621178998911</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>274.2303838009153</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9736113535876</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L45" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>186.2662063012469</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N45" t="n">
-        <v>173.6907663866335</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11464,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22595,25 +22595,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>347.366321224429</v>
+        <v>351.3724598280644</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22623,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.1975949617593</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>137.6566757453241</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.862224231856</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22838,19 +22838,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>325.5989282992405</v>
+        <v>334.8656218504798</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C6" t="n">
-        <v>133.8368815566912</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22945,10 +22945,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>141.3593613920546</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22996,7 +22996,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>244.1178472646865</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23072,13 +23072,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>288.8806410385104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,28 +23097,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>77.36996540850728</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23163,7 +23163,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,13 +23191,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>145.472922565994</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23221,22 +23221,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>368.0044283100869</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,13 +23303,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>188.2303707361422</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2037335653947</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>66.06724261945077</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,16 +23455,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23498,7 +23498,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>315.8114241890584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23510,10 +23510,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>295.3426297365386</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I14" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23546,19 +23546,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>188.2303707361422</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>54.53115402342591</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23668,16 +23668,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,16 +23692,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>379.9537176646994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S18" t="n">
-        <v>132.8115536722133</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
         <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,13 +23905,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>92.56872966899051</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -23938,10 +23938,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>252.9439654637738</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24014,13 +24014,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.3983415011523</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>40.78909820070955</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24102,16 +24102,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5748021285713</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,13 +24257,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24288,13 +24288,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,10 +24303,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>10.82175478680325</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25.13709405364452</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24534,7 +24534,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>159.9133187051348</v>
       </c>
     </row>
     <row r="28">
@@ -24619,13 +24619,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24680,10 +24680,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,7 +24698,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,31 +24722,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.2797515696392</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,19 +24759,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>88.65127904629608</v>
+        <v>158.5881349168571</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,10 +24804,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24819,10 +24819,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
@@ -24923,10 +24923,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>149.0972843361114</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,19 +25005,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>23.278021721429</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25053,16 +25053,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,13 +25126,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>343.4899854645034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,10 +25166,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,7 +25211,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>19.51194827898581</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>43.24093381563971</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,16 +25287,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25333,10 +25333,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,10 +25351,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25391,19 +25391,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25524,19 +25524,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>206.9853471658139</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25600,10 +25600,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>146.2678482032095</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>331.463391724582</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,10 +25670,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>150.9524208921511</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>135.7535331581742</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25758,22 +25758,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,13 +25865,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25883,10 +25883,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>132.9374890786825</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,16 +25919,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>207.2134805286079</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,16 +25956,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H45" t="n">
-        <v>74.11041813112978</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>54.53115402342591</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26001,10 +26001,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2005289107765</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,10 +26083,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7321030277729</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.4735004298</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.47350043</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.4735004298</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.47350043</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.47350043</v>
+        <v>355290.5609397931</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.1074841411</v>
+        <v>495368.783772988</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>358683.4735004299</v>
+        <v>355290.5609397932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.80321071924</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="C2" t="n">
+        <v>71053.6796537592</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71053.6796537592</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71053.67965375917</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71053.67965375917</v>
+      </c>
+      <c r="G2" t="n">
         <v>71731.80321071926</v>
       </c>
-      <c r="D2" t="n">
-        <v>71731.80321071926</v>
-      </c>
-      <c r="E2" t="n">
-        <v>71731.80321071921</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71731.80321071921</v>
-      </c>
-      <c r="G2" t="n">
-        <v>71731.8032107192</v>
-      </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.4035187994</v>
+        <v>99050.3760090772</v>
       </c>
       <c r="P2" t="n">
-        <v>71731.8032107192</v>
+        <v>71053.67965375919</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
         <v>53120.56697032503</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999088</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9396.056446265164</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="C4" t="n">
-        <v>9396.056446265164</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="D4" t="n">
-        <v>9396.056446265166</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="E4" t="n">
-        <v>9396.056446265166</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="F4" t="n">
-        <v>9396.056446265164</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="G4" t="n">
-        <v>9396.056446265166</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="H4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>13253.87401588902</v>
+        <v>16801.53650439377</v>
       </c>
       <c r="P4" t="n">
-        <v>9396.056446265166</v>
+        <v>11897.85367509446</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
         <v>2683.236080657098</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11235.20467955276</v>
+        <v>9856.058660301904</v>
       </c>
       <c r="C6" t="n">
-        <v>26024.91068379699</v>
+        <v>23121.52625938484</v>
       </c>
       <c r="D6" t="n">
-        <v>26024.91068379699</v>
+        <v>23121.52625938483</v>
       </c>
       <c r="E6" t="n">
-        <v>59652.51068379694</v>
+        <v>56749.12625938481</v>
       </c>
       <c r="F6" t="n">
-        <v>59652.51068379694</v>
+        <v>56749.12625938481</v>
       </c>
       <c r="G6" t="n">
-        <v>59652.51068379693</v>
+        <v>55785.31907576995</v>
       </c>
       <c r="H6" t="n">
-        <v>18668.29376882366</v>
+        <v>15007.47814373182</v>
       </c>
       <c r="I6" t="n">
-        <v>71788.86073914866</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="J6" t="n">
-        <v>60241.94262915783</v>
+        <v>57771.16121025305</v>
       </c>
       <c r="K6" t="n">
-        <v>71788.86073914869</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="L6" t="n">
-        <v>71788.86073914866</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="M6" t="n">
-        <v>71788.86073914866</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="N6" t="n">
-        <v>71788.86073914869</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="O6" t="n">
-        <v>71788.86073914872</v>
+        <v>67871.70710229895</v>
       </c>
       <c r="P6" t="n">
-        <v>59652.51068379693</v>
+        <v>56749.12625938482</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
         <v>44.13217237922859</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
         <v>196.8821164984305</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922856</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
         <v>196.8821164984305</v>
@@ -34705,16 +34705,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330018</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330016</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35103,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330019</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330018</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
         <v>44.13217237922859</v>
@@ -35893,10 +35893,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>44.13217237922859</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37315,7 +37315,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>104.6525397736754</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>201.1578881078215</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>161.1784674257276</v>
+        <v>156.8162982564931</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,19 +38020,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M44" t="n">
-        <v>44.13217237922859</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N44" t="n">
-        <v>42.34905430330018</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N45" t="n">
-        <v>42.34905430330016</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376293.3082743285</v>
+        <v>373007.8661325563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902171.467891437</v>
+        <v>5117581.913230948</v>
       </c>
     </row>
     <row r="11">
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,13 +861,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1054,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="D7" t="n">
-        <v>7.256111626157765</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F8" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1458,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>27.291937497222</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>38.87161743162455</v>
+        <v>132.876626399942</v>
       </c>
       <c r="V17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,11 +2080,11 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>112.3289263072337</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
@@ -2126,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2.789345313863375</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>104.2801141926743</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,22 +2405,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>11.96328195275254</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2646,16 +2648,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>7.502664901938293</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>45.76937707216953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>14.12036407145865</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>99.13012673870382</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,62 +3031,62 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>116.325098768111</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>85.68170746940434</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>119.3888130423743</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3390,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>56.91690033700343</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3424,64 +3426,64 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,70 +3505,70 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>198.2885478252619</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>36.95496583014156</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3870,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,43 +3912,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3980,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="E44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4019,25 +4021,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>34.86547882798917</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4059,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>21.45556623733946</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>39.58387696184059</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>118.3517937444931</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U2" t="n">
-        <v>38.38436553875449</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V2" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W2" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4472581485427</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.15042425981653</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U6" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V6" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W6" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X6" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4472581485427</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D7" t="n">
-        <v>123.1178524655551</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E7" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F7" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G7" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W7" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F8" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G8" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H8" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>93.21247408113457</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R10" t="n">
-        <v>93.21247408113457</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="S10" t="n">
-        <v>93.21247408113457</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="T10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S11" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T11" t="n">
-        <v>43.15042425981653</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U11" t="n">
-        <v>43.15042425981653</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V11" t="n">
-        <v>43.15042425981653</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W11" t="n">
-        <v>43.15042425981653</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X11" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C14" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D14" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E14" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F14" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G14" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T14" t="n">
-        <v>123.1178524655551</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U14" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V14" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W14" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X14" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F15" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G15" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H15" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>137.2644294849704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V17" t="n">
-        <v>92.68647758675968</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W17" t="n">
-        <v>48.10852568854899</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>48.10852568854899</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>48.10852568854899</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>48.10852568854899</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>48.10852568854899</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>48.10852568854899</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>48.10852568854899</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>89.14698820604177</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>132.8378388614781</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>376.1934816808115</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>376.1934816808115</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>124.6145917896818</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C21" t="n">
-        <v>124.6145917896818</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D21" t="n">
-        <v>124.6145917896818</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E21" t="n">
-        <v>124.6145917896818</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5862,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X21" t="n">
-        <v>292.8299288097498</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y21" t="n">
-        <v>292.8299288097498</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="22">
@@ -5944,7 +5946,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>462.2847515474883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>227.1326433157456</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>521.0535470733607</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>262.7299197543128</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>648.4405950311615</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="C27" t="n">
-        <v>473.9875657500345</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="D27" t="n">
-        <v>325.0531560887832</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>403.1787376922387</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>256.6441797191237</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>117.9133543017392</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W27" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X27" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y27" t="n">
-        <v>816.6559320512295</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="28">
@@ -6406,7 +6408,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>613.4725238202047</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
         <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>863.9257143604303</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W30" t="n">
-        <v>627.7355178317791</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>627.7355178317791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6658,10 +6660,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>136.7812428759814</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>265.0657773776928</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>105.8283223722373</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>512.7568786610034</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>304.9965798960495</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
         <v>829.5248650203655</v>
@@ -6892,16 +6894,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>284.1276524520142</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X35" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>139.8759037590757</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>139.8759037590757</v>
       </c>
       <c r="D36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>906.5653369884105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>906.5653369884105</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>906.5653369884105</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>678.3417187247995</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>139.8759037590757</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7363,10 +7365,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
         <v>829.5248650203655</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>735.4808960230977</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>496.626357174339</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.24552779009599</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>174.1654147507498</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>408.2667482764182</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>642.3680818020865</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>710.7118656093414</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W42" t="n">
-        <v>471.8573267605827</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X42" t="n">
-        <v>264.0058265550499</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>56.24552779009599</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.13413836268582</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C44" t="n">
-        <v>83.13413836268582</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D44" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>79.95943146291799</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>158.3355078473624</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V44" t="n">
-        <v>83.13413836268582</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W44" t="n">
-        <v>83.13413836268582</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>118.3517937444931</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C45" t="n">
-        <v>118.3517937444931</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D45" t="n">
-        <v>118.3517937444931</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E45" t="n">
-        <v>118.3517937444931</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F45" t="n">
-        <v>118.3517937444931</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>38.38436553875449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>81.54278654139161</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>119.1474696551402</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>118.3517937444931</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>118.3517937444931</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y45" t="n">
-        <v>118.3517937444931</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>123.1178524655551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.1178524655551</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -8544,13 +8546,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -8781,13 +8783,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>267.3975919943167</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9015,16 +9017,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9483,19 +9485,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>295.3706780363673</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>194.2149313470516</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3724598280644</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22720,13 +22722,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>204.0849077710508</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,13 +22795,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>300.6031846841426</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
-        <v>334.8656218504798</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22872,10 +22874,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22942,28 +22944,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D7" t="n">
-        <v>141.3593613920546</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E7" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22981,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -22996,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23027,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>343.0587526406372</v>
       </c>
       <c r="F8" t="n">
-        <v>372.0105669137222</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23109,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23148,16 +23150,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23191,13 +23193,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>145.472922565994</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23221,16 +23223,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,13 +23305,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>188.2303707361422</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23346,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23391,16 +23393,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>66.06724261945077</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23510,10 +23512,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>171.6042721387814</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,16 +23542,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>188.2303707361422</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>54.53115402342591</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23622,13 +23624,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23668,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23750,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>212.474035476212</v>
+        <v>118.4690265078945</v>
       </c>
       <c r="V17" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.041529734255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,19 +23943,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>252.9439654637738</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24014,10 +24016,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>169.9191536744524</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>40.78909820070955</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24102,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24184,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24257,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24291,22 +24293,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>145.6817985026484</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>101.0346019561178</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,13 +24502,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24534,16 +24536,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>104.7327793345582</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>159.9133187051348</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24680,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24731,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,19 +24761,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>158.5881349168571</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.027707413939311</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>297.2606022539203</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>59.38750492397953</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25044,10 +25046,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25166,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>318.2910467450428</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25202,22 +25204,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>28.05625252226442</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25278,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>43.24093381563971</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25451,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25603,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>150.9524208921511</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>135.7535331581742</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25758,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25868,10 +25870,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>270.2632538415217</v>
       </c>
       <c r="E44" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25883,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25907,25 +25909,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>216.4801740798473</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25947,22 +25949,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>125.9894993272993</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>97.75964020137005</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26001,10 +26003,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>215.7321030277729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.783772988</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397932</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071921</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.6796537592</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="D2" t="n">
-        <v>71053.6796537592</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.67965375917</v>
+        <v>71731.80321071927</v>
       </c>
       <c r="F2" t="n">
-        <v>71053.67965375917</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="O2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="L2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99050.3760090772</v>
-      </c>
-      <c r="P2" t="n">
-        <v>71053.67965375919</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16801.53650439377</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>11897.85367509446</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9856.058660301904</v>
+        <v>8614.632621000463</v>
       </c>
       <c r="C6" t="n">
-        <v>23121.52625938484</v>
+        <v>23404.33862524468</v>
       </c>
       <c r="D6" t="n">
-        <v>23121.52625938483</v>
+        <v>23404.33862524468</v>
       </c>
       <c r="E6" t="n">
-        <v>56749.12625938481</v>
+        <v>57031.93862524475</v>
       </c>
       <c r="F6" t="n">
-        <v>56749.12625938481</v>
+        <v>57031.93862524472</v>
       </c>
       <c r="G6" t="n">
-        <v>55785.31907576995</v>
+        <v>14165.61021358452</v>
       </c>
       <c r="H6" t="n">
-        <v>15007.47814373182</v>
+        <v>68128.04511405689</v>
       </c>
       <c r="I6" t="n">
         <v>68128.04511405686</v>
       </c>
       <c r="J6" t="n">
-        <v>57771.16121025305</v>
+        <v>56581.12700406594</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405688</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405688</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="M6" t="n">
+        <v>68128.04511405683</v>
+      </c>
+      <c r="N6" t="n">
         <v>68128.04511405686</v>
       </c>
-      <c r="N6" t="n">
-        <v>68128.04511405688</v>
-      </c>
       <c r="O6" t="n">
-        <v>67871.70710229895</v>
+        <v>20748.16689659309</v>
       </c>
       <c r="P6" t="n">
-        <v>56749.12625938482</v>
+        <v>68128.04511405686</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36914,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>156.8162982564931</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.58387696184059</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373007.8661325563</v>
+        <v>267281.5962860414</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>925399.3994514381</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117581.913230948</v>
+        <v>5765385.89860145</v>
       </c>
     </row>
     <row r="11">
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>44.13217237922859</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>66.78847831737245</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="W5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>84.05721994201966</v>
       </c>
     </row>
     <row r="7">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>44.16343725408909</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>44.13217237922859</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>98.09531059045651</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>44.13217237922859</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>44.13217237922859</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>38.87161743162455</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
     </row>
     <row r="16">
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>132.876626399942</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>33.79934966352226</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.789345313863375</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,23 +2320,23 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,22 +2405,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>11.96328195275254</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2642,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7.502664901938293</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>99.13012673870382</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>117.1217061571814</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,17 +3034,17 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>85.68170746940434</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3198,58 +3198,58 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>119.3888130423743</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>19.15541836171557</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>35.40726547353844</v>
+        <v>83.40091804193493</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>50.46697834767995</v>
       </c>
     </row>
     <row r="45">
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>21.45556623733946</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,7 +4121,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>92.68647758675968</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>48.10852568854899</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>466.183833194304</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>45.45613755060546</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>45.45613755060546</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>466.183833194304</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>466.183833194304</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>466.183833194304</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>466.183833194304</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>26.02500997809875</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>176.5286895169144</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>137.2644294849704</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W6" t="n">
-        <v>137.2644294849704</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X6" t="n">
-        <v>137.2644294849704</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y6" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.5286895169144</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C8" t="n">
-        <v>176.5286895169144</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D8" t="n">
-        <v>176.5286895169144</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E8" t="n">
-        <v>137.2644294849704</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F8" t="n">
-        <v>92.68647758675968</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G8" t="n">
-        <v>48.10852568854899</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.5286895169144</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>154.1903048329442</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>47.22142444577459</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>48.10852568854899</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>3.530573790338288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C11" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D11" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E11" t="n">
-        <v>137.2644294849704</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F11" t="n">
-        <v>137.2644294849704</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G11" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y11" t="n">
-        <v>137.2644294849704</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>118.3673154238052</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>47.22142444577459</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>87.37278572049297</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>48.10852568854899</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.79483382228227</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C14" t="n">
-        <v>42.79483382228227</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D14" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>87.37278572049297</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>42.79483382228227</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>42.79483382228227</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V14" t="n">
-        <v>42.79483382228227</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W14" t="n">
-        <v>42.79483382228227</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X14" t="n">
-        <v>42.79483382228227</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y14" t="n">
-        <v>42.79483382228227</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>3.530573790338288</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>3.530573790338288</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>45.45613755060546</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>92.68647758675968</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>48.10852568854899</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>48.10852568854899</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W15" t="n">
-        <v>48.10852568854899</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X15" t="n">
-        <v>48.10852568854899</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C17" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D17" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
         <v>231.8830517671884</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>231.8830517671884</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V17" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W17" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X17" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y17" t="n">
-        <v>231.8830517671884</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>359.1939133246643</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>359.1939133246643</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>199.9564583192088</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>53.42190034609379</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="19">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>728.9050472788936</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C21" t="n">
-        <v>726.0875267598396</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5864,19 +5864,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>728.9050472788936</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>728.9050472788936</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>728.9050472788936</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>521.0535470733607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>521.0535470733607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>521.0535470733607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>728.9050472788936</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>521.0535470733607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.0535470733607</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6177,22 +6177,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>562.4161926976942</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>562.4161926976942</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>562.4161926976942</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>403.1787376922387</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>256.6441797191237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>117.9133543017392</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>562.4161926976942</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>562.4161926976942</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>562.4161926976942</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>562.4161926976942</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6411,10 +6411,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="30">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6554,7 +6554,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>863.9257143604303</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>690.5083698110992</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>690.5083698110992</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>462.2847515474883</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V30" t="n">
-        <v>227.1326433157456</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>414.0001870389441</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>265.0657773776928</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>105.8283223722373</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6791,13 +6791,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>139.8759037590757</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>139.8759037590757</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
         <v>19.28114311021272</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7052,16 +7052,16 @@
         <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>555.4877027295624</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>555.4877027295624</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>347.6362025240296</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>139.8759037590757</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7131,16 +7131,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.7108255783361</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.7108255783361</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>298.4948343740486</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W42" t="n">
-        <v>55.04605772994853</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7596,19 +7596,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.5536560184564</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>104.5536560184564</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>348.0024326625565</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>348.0024326625565</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>104.5536560184564</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>104.5536560184564</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y44" t="n">
-        <v>104.5536560184564</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7733,10 +7733,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
         <v>725.4530095217538</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X45" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7833,25 +7833,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,19 +8300,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>184.9452987477446</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>184.9452987477446</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2508595994748</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9485,10 +9485,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9497,10 +9497,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,10 +10202,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,10 +10916,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,16 +11150,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22600,19 +22600,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>194.2149313470516</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2134805286079</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,25 +22631,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22679,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>166.0121088320528</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>204.0849077710508</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>300.6031846841426</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22843,10 +22843,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>243.3324706909737</v>
       </c>
       <c r="W5" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22874,10 +22874,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>121.6254758352847</v>
       </c>
     </row>
     <row r="7">
@@ -22944,10 +22944,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22956,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22992,13 +22992,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>343.0587526406372</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>68.07200698240737</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23150,16 +23150,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>188.6684147701967</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23223,16 +23223,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.1551389805992</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>371.1705651359065</v>
+        <v>195.0896117727101</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23345,10 +23345,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>46.97390180292737</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23393,16 +23393,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>188.6684147701967</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>212.8233657292951</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>161.6408128242489</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G13" t="n">
         <v>167.9909793584588</v>
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23515,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>171.6042721387814</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.8115536722133</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>80.77591565244738</v>
       </c>
     </row>
     <row r="16">
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>118.4690265078945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>308.0243230835712</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>103.5441674996884</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23864,10 +23864,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,22 +24050,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>169.9191536744524</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24104,16 +24104,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,13 +24208,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24293,22 +24293,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>145.6817985026484</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24341,13 +24341,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24460,7 +24460,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>269.1307943144919</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24530,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>104.7327793345582</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24651,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>354.4504772539638</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.027707413939311</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24815,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>108.8196759237934</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U32" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>297.2606022539203</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>59.38750492397953</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25210,16 +25210,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>157.4457150350269</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>28.05625252226442</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25292,10 +25292,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>297.5105822931005</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25453,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>125.9137940316683</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>170.365719729939</v>
+        <v>122.3720671615425</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>270.2632538415217</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>335.7709603083736</v>
       </c>
     </row>
     <row r="45">
@@ -25949,16 +25949,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>125.9894993272993</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25997,10 +25997,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.80321071921</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="D2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
-        <v>71731.80321071927</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="F2" t="n">
-        <v>71731.80321071924</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879933</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="K2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879942</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="C4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8614.632621000463</v>
+        <v>-58486.9970375313</v>
       </c>
       <c r="C6" t="n">
-        <v>23404.33862524468</v>
+        <v>22282.4344940164</v>
       </c>
       <c r="D6" t="n">
-        <v>23404.33862524468</v>
+        <v>22282.43449401642</v>
       </c>
       <c r="E6" t="n">
-        <v>57031.93862524475</v>
+        <v>55910.03449401643</v>
       </c>
       <c r="F6" t="n">
-        <v>57031.93862524472</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="G6" t="n">
-        <v>14165.61021358452</v>
+        <v>55910.03449401636</v>
       </c>
       <c r="H6" t="n">
-        <v>68128.04511405689</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="J6" t="n">
-        <v>56581.12700406594</v>
+        <v>-7149.908105089815</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="O6" t="n">
-        <v>20748.16689659309</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="P6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401644</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>42.34905430330018</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>42.34905430330018</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9091475161415</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36205,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36217,10 +36217,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37636,10 +37636,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37870,16 +37870,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
